--- a/doc/file_format_pmf.xlsx
+++ b/doc/file_format_pmf.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\arduino-music-player\trunk\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD60AF9D-586B-4D18-870A-8077B40DD390}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="24240" windowHeight="12720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="14490" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v1.1" sheetId="2" r:id="rId1"/>
+    <sheet name="v1.2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>me2</author>
     <author>Jarkko</author>
   </authors>
   <commentList>
-    <comment ref="B23" authorId="0">
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -34,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="1">
+    <comment ref="B24" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="1">
+    <comment ref="B28" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +69,60 @@
         </r>
       </text>
     </comment>
-    <comment ref="B29" authorId="0">
+    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If the loop is enabled and the flag is set, the loop is ping-pong loop, otherwise uses regular forward loop</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jarkko</author>
+    <author>me2</author>
+  </authors>
+  <commentList>
+    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{ED759097-B1CC-478A-B6E6-5A2D6DE2C88B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>If the flag is set, use linear frequency table for note periods (XM/IT). Otherwise use Amiga table (MOD/S3M).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{998F9F10-52B4-42A6-8E8B-220B254051F6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>If the flag is set, instrument uses 16-bit samples. Otherwise uses 8-bit samples.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B30" authorId="1" shapeId="0" xr:uid="{F9A291B9-833E-4496-A2F3-001351752A66}">
       <text>
         <r>
           <rPr>
@@ -81,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="121">
   <si>
     <t>uint16</t>
   </si>
@@ -913,11 +973,120 @@
   <si>
     <t xml:space="preserve">          3 = Loop Pattern (see Amiga MOD effect 14:6)</t>
   </si>
+  <si>
+    <t>File version in BCD format, 0x1200 = v1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9 = Tremolo [xxxxyyyy], x=speed, y=depth (see Amiga MOD effect 7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  10 = Note Volume Slide [000xyyyy], x=volume slide type (0=down, 1=up), y=slide speed (see Amiga MOD effect 5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  11 = Vibrato Volume Side [000xyyyy], x=volume slide type (0=down, 1=up), y=slide speed (see Amiga MOD effect 6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  12 = Retrigger Volume Slide [xxxxyyyy], x=volume slide speed, y=retrigger frequency (see S3M effect Q)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  13 = Set Sample Offset (see Amiga MOD effect 9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  14 = Sub-effect [xxxxyyyy], x=sub-effect type, y=sub-effect value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          5 = Loop Pattern (see Amiga MOD effect 14:6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          0 = Glissando Control (see Amiga MOD effect 14:3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          1 = Set Finetune (see Amiga MOD effect 14:5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          2 = Set Vibrato Wave (see Amiga MOD effect 14:4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          3 = Set Tremolo Wave (see Amiga MOD effect 14:7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          4 = Pattern Delay (see Amiga MOD effect 14:14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          6 = Cut Sample (see Amiga MOD effect 14:12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          7 = Delay Sample (see S3M effect SDx)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3 = Volume Slide [00xxyyyy], x=slide type (0=down, 1=up, 2=fine down, 3=fine up), y=slide speed
+           (see Amiga MOD effect 10, and 14/10 &amp; 14/11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Track represents one column in a pattern and is stored as a compressed bit stream. First byte in the stream holds bits 0-7, second byte bits 8-15, third byte bits 16-23, and so on. The stream starts with 4 bits defining the stream compression type. The first 2 bits specify data mask compression, 3rd bit specifies if the track uses "repeat" compression and 4th bit defines if the track supports volume effects. Data mask compression type: 0=data mask is stored for each row, 1=a bit is stored for each row which is set to 1 if data mask follows (otherwise there's no data), 2=2-bit value is stored for each row which defines the data-mask as follows: 0=row has no data, 1=data mask follows, 2/3=use bit-0 as index to previously stored data mask. Repeat compression is used for tracks which have a lot of row-to-row data repetition and use 8-bit instead of 4-bit data mask. The data mask specifies what data is stored for the row. 4-bit data mask specifies if note, instrument, volume or effect data folows in bits 0-3 respectively (set to 1 for each type if data is stored), and the data for these types folows the mask in the same order. 8-bit data mask uses 2 bits per data type and can also specify to use one of the two previously stored data for the row instead of storing the data. The 8-bit mask specifies in bits 4-7 respectively for note / instrument / volume / effect if to use previously stored data for the type instead. If this bit is set to 1 for a type, then the lower bit in bits 0-3 is interpreted as an index to previously stored data. For example if the mask is 0x10 then use previously stored note for the row, or if the mask is 0x11, then use data stored before that. Below is example code for parsing the stream:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// get data mask
+uint8_t data_mask=0, read_dmask=0;
+switch(compression_type&amp;3)
+{
+  case 0: read_dmask=1; break;
+  case 1: read_dmask=read_bits(1); break;
+  case 2: switch(read_bits(2))
+          {
+            case 1: read_dmask=true; break;
+            case 2: data_mask=dmask_buf[0]; break;
+            case 3: data_mask=dmask_buf[1]; break;
+          } break;
+}
+if(read_dmask)
+{
+  data_mask=read_bits(compression_type&amp;4?8:4);
+  dmask_buf[1]=dmask_buf[0];
+  dmask_buf[0]=data_mask;
+}
+uint8_t num_volume_bits=pmfcfg_num_volume_bits+(compression_type&amp;8?2:0);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6 = Note Slide. [1, 0xdf]=normal slide, [0xef, 0xff]=unused (see Amiga MOD effect 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume is stored as 6-bit value ranging from 0..63. If volume effects are (volume effects bit for the track is set) additional 2 bits are stored to extend the volume data range to 0..255. In this case 0..63 range is for setting volume as before, while range 64..255 is reserved for different effects. Note that the default volume for samples is in range 0..255, so track volume must be multiplied by 255/63=4.047619 to make these volumes match. To avoid float math, this can be done like this: (track_vol&lt;&lt;2)|(track_vol&gt;&gt;4). Volume track effects are as follows:
+  0x40-0x7f = Volume Slide [01xxyyyy], x=slide type (0=down, 1=up, 2=fine down, 3=fine up), y=slide speed
+  0x80-0x8f = Note Slide Down [1000xxxx], x=slide speed
+  0x90-0x9f = Note Slide Up [1001xxxx], x=slide speed
+  0xa0-0xaf = Note Slide [1010xxxx], x=slide speed
+  0xb0-0xbf = Set Vibrato Speed [1011xxxx], x=speed
+  0xc0-0xcf = Vibrato [1100xxxx], x=depth
+</t>
+  </si>
+  <si>
+    <t>Min note period</t>
+  </si>
+  <si>
+    <t>Max note period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4 = Note Slide Down. [1, 0xdf]=normal slide, [0xe0, 0xef]=extra fine slide, [0xf0, 0xff]=fine slide
+           (see Amiga MOD effect 2, 14:2, and S3M effect EE/EF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5 = Note Slide Up. [1, 0xdf]=normal slide, [0xe0, 0xef]=extra fine slide, [0xf0, 0xff]=fine slide
+           (see Amiga MOD effect 1, 14:1, and S3M effect FE/FF)</t>
+  </si>
+  <si>
+    <t>int16</t>
+  </si>
+  <si>
+    <t>Finetune (9.7 fixed point format)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1223,15 +1392,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1262,6 +1422,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1271,6 +1440,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1319,7 +1491,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1352,9 +1524,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1387,6 +1576,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1562,10 +1768,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A72" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A64" sqref="A64:B64"/>
     </sheetView>
   </sheetViews>
@@ -1726,10 +1932,10 @@
       <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="33"/>
+      <c r="B22" s="30"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
@@ -1754,10 +1960,10 @@
       <c r="E26" s="15"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="33"/>
+      <c r="B27" s="30"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
@@ -1779,10 +1985,10 @@
       <c r="D30" s="15"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="31"/>
+      <c r="B32" s="28"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
@@ -1851,10 +2057,10 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="31"/>
+      <c r="B43" s="28"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
@@ -1881,10 +2087,10 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="31"/>
+      <c r="B49" s="28"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
@@ -1940,10 +2146,10 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B58" s="31"/>
+      <c r="B58" s="28"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
@@ -1969,23 +2175,23 @@
       <c r="B63" s="14"/>
     </row>
     <row r="64" spans="1:5" ht="219" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="36" t="s">
+      <c r="A64" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="37"/>
+      <c r="B64" s="34"/>
       <c r="E64" s="15"/>
     </row>
     <row r="65" spans="1:4" ht="221.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="38" t="s">
+      <c r="A65" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="39"/>
+      <c r="B65" s="36"/>
     </row>
     <row r="66" spans="1:4" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="40" t="s">
+      <c r="A66" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="41"/>
+      <c r="B66" s="38"/>
       <c r="D66" s="15"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1997,148 +2203,169 @@
       <c r="B68" s="15"/>
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="34" t="s">
+      <c r="A69" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B69" s="35"/>
+      <c r="B69" s="32"/>
     </row>
     <row r="70" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="28" t="s">
+      <c r="A70" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="29"/>
+      <c r="B70" s="26"/>
     </row>
     <row r="71" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B71" s="27"/>
+      <c r="B71" s="40"/>
     </row>
     <row r="72" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="26"/>
+      <c r="B72" s="41"/>
     </row>
     <row r="73" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="26"/>
+      <c r="B73" s="41"/>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="B74" s="26"/>
+      <c r="B74" s="41"/>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="26"/>
+      <c r="B75" s="41"/>
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="B76" s="26"/>
+      <c r="B76" s="41"/>
     </row>
     <row r="77" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="B77" s="26"/>
+      <c r="B77" s="41"/>
     </row>
     <row r="78" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="B78" s="26"/>
+      <c r="B78" s="41"/>
     </row>
     <row r="79" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="26"/>
+      <c r="B79" s="41"/>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="25" t="s">
+      <c r="A80" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="26"/>
+      <c r="B80" s="41"/>
     </row>
     <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="B81" s="26"/>
+      <c r="B81" s="41"/>
     </row>
     <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="B82" s="26"/>
+      <c r="B82" s="41"/>
     </row>
     <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="B83" s="26"/>
+      <c r="B83" s="41"/>
     </row>
     <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B84" s="26"/>
+      <c r="B84" s="41"/>
     </row>
     <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="26"/>
+      <c r="B85" s="41"/>
     </row>
     <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="26"/>
+      <c r="B86" s="41"/>
     </row>
     <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="B87" s="26"/>
+      <c r="B87" s="41"/>
     </row>
     <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="25" t="s">
+      <c r="A88" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B88" s="26"/>
+      <c r="B88" s="41"/>
     </row>
     <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B89" s="26"/>
+      <c r="B89" s="41"/>
     </row>
     <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B90" s="26"/>
+      <c r="B90" s="41"/>
     </row>
     <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="B91" s="26"/>
+      <c r="B91" s="41"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B92" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A58:B58"/>
@@ -2150,6 +2377,649 @@
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A65:B65"/>
     <mergeCell ref="A66:B66"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72728C17-C17C-4BC3-B50B-D76DF46164E6}">
+  <dimension ref="A2:G97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="81.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="30"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="30"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D31" s="15"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="28"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="19"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="28"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="28"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="19"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="15"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="15"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="15"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="15"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" s="28"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="19"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" s="14"/>
+    </row>
+    <row r="65" spans="1:5" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" s="34"/>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="1:5" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" s="36"/>
+    </row>
+    <row r="67" spans="1:5" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="38"/>
+      <c r="D67" s="15"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="15"/>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" s="32"/>
+    </row>
+    <row r="71" spans="1:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="26"/>
+    </row>
+    <row r="72" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="40"/>
+    </row>
+    <row r="73" spans="1:5" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73" s="41"/>
+    </row>
+    <row r="74" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="41"/>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="41"/>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" s="41"/>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" s="41"/>
+    </row>
+    <row r="78" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B78" s="41"/>
+    </row>
+    <row r="79" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" s="41"/>
+    </row>
+    <row r="80" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="B80" s="41"/>
+    </row>
+    <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" s="41"/>
+    </row>
+    <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="41"/>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" s="41"/>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B84" s="41"/>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" s="41"/>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86" s="41"/>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87" s="41"/>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88" s="41"/>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B89" s="41"/>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90" s="41"/>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B91" s="41"/>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B92" s="41"/>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B93" s="41"/>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" s="41"/>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" s="41"/>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B96" s="41"/>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B97" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A70:B70"/>
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="A72:B72"/>
     <mergeCell ref="A73:B73"/>
@@ -2157,23 +3027,15 @@
     <mergeCell ref="A75:B75"/>
     <mergeCell ref="A76:B76"/>
     <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A50:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/file_format_pmf.xlsx
+++ b/doc/file_format_pmf.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\arduino-music-player\trunk\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD60AF9D-586B-4D18-870A-8077B40DD390}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28150DD-D13A-4441-A6F9-1171E7F81E9A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="14490" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="14490" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v1.1" sheetId="2" r:id="rId1"/>
     <sheet name="v1.2" sheetId="3" r:id="rId2"/>
+    <sheet name="v1.21" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -140,8 +141,76 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jarkko</author>
+    <author>me2</author>
+    <author>ME2</author>
+  </authors>
+  <commentList>
+    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{7AE49432-2822-4CDB-86C3-037850E10F21}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>If the flag is set, use linear frequency table for note periods (XM/IT). Otherwise use Amiga table (MOD/S3M).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{647D1768-1FA4-4A9A-A570-F17193E45E0E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>If the flag is set, instrument uses 16-bit samples. Otherwise uses 8-bit samples.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B30" authorId="1" shapeId="0" xr:uid="{CC4BEC7C-010C-44A4-BF00-0FF0C44451BD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If the loop is enabled and the flag is set, the loop is bidi (bi-directional) loop, otherwise uses regular forward loop</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B47" authorId="2" shapeId="0" xr:uid="{8198B67F-2EFD-4BE8-9D8D-0995AA53651D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Note that if the value is 0, there is no track data and the track is empty</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="123">
   <si>
     <t>uint16</t>
   </si>
@@ -1081,6 +1150,12 @@
   </si>
   <si>
     <t>Finetune (9.7 fixed point format)</t>
+  </si>
+  <si>
+    <t>pmfinstflag_bidi_loop</t>
+  </si>
+  <si>
+    <t>File version in BCD format, 0x1210 = v1.21</t>
   </si>
 </sst>
 </file>
@@ -2388,7 +2463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72728C17-C17C-4BC3-B50B-D76DF46164E6}">
   <dimension ref="A2:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -3038,4 +3113,658 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B46E04-A2A3-45EF-B0E0-EC43C4688D5A}">
+  <dimension ref="A2:G97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="81.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="30"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="30"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D31" s="15"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="28"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="19"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="28"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="28"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="19"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="15"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="15"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="15"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="15"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" s="28"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="19"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" s="14"/>
+    </row>
+    <row r="65" spans="1:5" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" s="34"/>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="1:5" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" s="36"/>
+    </row>
+    <row r="67" spans="1:5" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="38"/>
+      <c r="D67" s="15"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="15"/>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" s="32"/>
+    </row>
+    <row r="71" spans="1:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="26"/>
+    </row>
+    <row r="72" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="40"/>
+    </row>
+    <row r="73" spans="1:5" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73" s="41"/>
+    </row>
+    <row r="74" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="41"/>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="41"/>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" s="41"/>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" s="41"/>
+    </row>
+    <row r="78" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B78" s="41"/>
+    </row>
+    <row r="79" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" s="41"/>
+    </row>
+    <row r="80" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="B80" s="41"/>
+    </row>
+    <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" s="41"/>
+    </row>
+    <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="41"/>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" s="41"/>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B84" s="41"/>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" s="41"/>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86" s="41"/>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87" s="41"/>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88" s="41"/>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B89" s="41"/>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90" s="41"/>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B91" s="41"/>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B92" s="41"/>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B93" s="41"/>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" s="41"/>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" s="41"/>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B96" s="41"/>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B97" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/doc/file_format_pmf.xlsx
+++ b/doc/file_format_pmf.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\arduino-music-player\trunk\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28150DD-D13A-4441-A6F9-1171E7F81E9A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598C6F49-5228-4CA6-9901-89B3D2563F9E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="14490" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="14490" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v1.1" sheetId="2" r:id="rId1"/>
     <sheet name="v1.2" sheetId="3" r:id="rId2"/>
     <sheet name="v1.21" sheetId="4" r:id="rId3"/>
+    <sheet name="v1.3" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -209,8 +210,118 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jarkko</author>
+    <author>me2</author>
+    <author>ME2</author>
+  </authors>
+  <commentList>
+    <comment ref="B35" authorId="0" shapeId="0" xr:uid="{9B1AE8F3-2474-4089-A260-CD7AC749570A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>If the flag is set, use linear frequency table for note periods. Otherwise use Amiga table.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B39" authorId="0" shapeId="0" xr:uid="{3F0FCDB5-9834-4839-AC39-F60534665B78}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>If the flag is set, sample is 16-bit data. Otherwise uses 8-bit data.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B40" authorId="1" shapeId="0" xr:uid="{14315F22-2296-4D8A-98E7-0DB85053AB4B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If the loop is enabled and the flag is set, the loop is bidi (bi-directional) loop, otherwise uses regular forward loop</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B53" authorId="2" shapeId="0" xr:uid="{6FEE5933-993E-469C-8296-54DDB4B8FA7B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Note: For index values &gt;=num_smp, subtract num_smp from the index value to get the actual data offset</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B84" authorId="2" shapeId="0" xr:uid="{B888C15C-21FD-4B50-A590-C7056FC4F1D3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The entries map a range note indices to given note index offset and sample. If num_nme &lt;120, entries represent note index ranges (e.g. note indices 10..20 can be stored with a single entry to use given sample and note index offset). The ranges are stored in ascending order with max range value to enable quick linear or binary search. For complex mapping requiring many ranges (and slower search) the converter opts to direct mapping without the range representation.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B88" authorId="2" shapeId="0" xr:uid="{4C376C6D-8112-4C72-AA27-47652AE8E17C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The total range of note indices covered by the entry is [prev_max+1, max], and for the very first entry [0, max]. Note that the max value is stored only if num_nme&lt;120. Otherwise nmap_entry is stored for each note and there's no need to store the range.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B89" authorId="2" shapeId="0" xr:uid="{5C11C690-AEAB-4BF3-83A8-B9AD01ADB90D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>For note indices in the range, this is an offset that's added to the index for final note index value (0=no change). If the final note index is outside [0,  119] the note is cut.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="169">
   <si>
     <t>uint16</t>
   </si>
@@ -947,33 +1058,6 @@
   dmask_buf[0]=data_mask;
 }
 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Instrument index is 5-bit 0-based index to the instruments stored in the file (i.e. index to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>instrument</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> array in fie header)</t>
-    </r>
   </si>
   <si>
     <t>Volume is stored as 6-bit value ranging from 0..63. Note that the default volume for samples is in range 0..255, so track volume must be multiplied by 255/63=4.047619 to make these volumes match. To avoid float math, this can be done like this: (track_vol&lt;&lt;2)|(track_vol&gt;&gt;4).</t>
@@ -1122,7 +1206,649 @@
     <t xml:space="preserve">  6 = Note Slide. [1, 0xdf]=normal slide, [0xef, 0xff]=unused (see Amiga MOD effect 3)</t>
   </si>
   <si>
-    <t xml:space="preserve">Volume is stored as 6-bit value ranging from 0..63. If volume effects are (volume effects bit for the track is set) additional 2 bits are stored to extend the volume data range to 0..255. In this case 0..63 range is for setting volume as before, while range 64..255 is reserved for different effects. Note that the default volume for samples is in range 0..255, so track volume must be multiplied by 255/63=4.047619 to make these volumes match. To avoid float math, this can be done like this: (track_vol&lt;&lt;2)|(track_vol&gt;&gt;4). Volume track effects are as follows:
+    <t>Min note period</t>
+  </si>
+  <si>
+    <t>Max note period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4 = Note Slide Down. [1, 0xdf]=normal slide, [0xe0, 0xef]=extra fine slide, [0xf0, 0xff]=fine slide
+           (see Amiga MOD effect 2, 14:2, and S3M effect EE/EF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5 = Note Slide Up. [1, 0xdf]=normal slide, [0xe0, 0xef]=extra fine slide, [0xf0, 0xff]=fine slide
+           (see Amiga MOD effect 1, 14:1, and S3M effect FE/FF)</t>
+  </si>
+  <si>
+    <t>int16</t>
+  </si>
+  <si>
+    <t>Finetune (9.7 fixed point format)</t>
+  </si>
+  <si>
+    <t>pmfinstflag_bidi_loop</t>
+  </si>
+  <si>
+    <t>File version in BCD format, 0x1210 = v1.21</t>
+  </si>
+  <si>
+    <t>File version in BCD format, 0x1300 = v1.3</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>Sample data offset from the file start (the data is signed &amp; properly aligned)</t>
+  </si>
+  <si>
+    <t>Sample length</t>
+  </si>
+  <si>
+    <t>Sample flags</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sample</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num_smp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Sample metadata</t>
+  </si>
+  <si>
+    <r>
+      <t>Number of samples [=</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num_smp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>e_pmf_sample_flags</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e_pmf_sample_flags</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:8</t>
+    </r>
+  </si>
+  <si>
+    <t>pmfsmpflag_16bit</t>
+  </si>
+  <si>
+    <t>pmfsmpflag_bidi_loop</t>
+  </si>
+  <si>
+    <t>Sample index</t>
+  </si>
+  <si>
+    <t>Instrument envelope data</t>
+  </si>
+  <si>
+    <t>Instrument volume (0-255)</t>
+  </si>
+  <si>
+    <t>Reserved (0)</t>
+  </si>
+  <si>
+    <t>Sample volume (0-255)</t>
+  </si>
+  <si>
+    <t>Finetune (signed 9.7 fixed point)</t>
+  </si>
+  <si>
+    <t>Volume fadeout speed (unsigned 8.8 fixed point)</t>
+  </si>
+  <si>
+    <t>uitn32</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Offsets to compressed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>track</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">s for each channel from </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>track_data_offs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Envelope data offset from the file start [=</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>env_data_offs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Track data offset from the file start [=</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>track_data_offs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Offset to volume </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>envelope</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>env_data_offs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (0xffff if no envelope defined)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Offset to pitch </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>envelope</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>env_data_offs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (0xffff if no envelope defined)</t>
+    </r>
+  </si>
+  <si>
+    <t>note_map</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>note_map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[]</t>
+    </r>
+  </si>
+  <si>
+    <t>Note mapping data</t>
+  </si>
+  <si>
+    <t>int8</t>
+  </si>
+  <si>
+    <t>Note index offset</t>
+  </si>
+  <si>
+    <t>uint8[0/1]</t>
+  </si>
+  <si>
+    <r>
+      <t>int8[</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num_chl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Padding to align the following sample data to 32-bit boundary: (-</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pl_len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num_chl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)&amp;3 bytes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>envelope</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[]</t>
+    </r>
+  </si>
+  <si>
+    <t>nmap_entry</t>
+  </si>
+  <si>
+    <r>
+      <t>Number of note map entries [=</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num_nme</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>nmap_entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num_nme</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Note index range max value (stored if </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num_nme</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;120)</t>
+    </r>
+  </si>
+  <si>
+    <t>Note mapping entries, stored in ascending order</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Instrument index is 5-bit 0-based index to the instruments stored in the file (i.e. index to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>instrument</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> array in file header)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Instrument index is 6-bit 0-based index to the instruments stored in the file (i.e. index to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>instrument</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> array in the file header)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume is stored as 6-bit value ranging from 0..63. If volume effects are enabled (volume effects bit for the track is set) additional 2 bits are stored to extend the volume data range to 0..255. In this case 0..63 range is for setting volume as before, while range 64..255 is reserved for different effects. Note that the default volume for samples is in range 0..255, so track volume must be multiplied by 255/63=4.047619 to make these volumes match. To avoid float math, this can be done like this: (track_vol&lt;&lt;2)|(track_vol&gt;&gt;4). Volume track effects are as follows:
   0x40-0x7f = Volume Slide [01xxyyyy], x=slide type (0=down, 1=up, 2=fine down, 3=fine up), y=slide speed
   0x80-0x8f = Note Slide Down [1000xxxx], x=slide speed
   0x90-0x9f = Note Slide Up [1001xxxx], x=slide speed
@@ -1132,30 +1858,78 @@
 </t>
   </si>
   <si>
-    <t>Min note period</t>
-  </si>
-  <si>
-    <t>Max note period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4 = Note Slide Down. [1, 0xdf]=normal slide, [0xe0, 0xef]=extra fine slide, [0xf0, 0xff]=fine slide
-           (see Amiga MOD effect 2, 14:2, and S3M effect EE/EF)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5 = Note Slide Up. [1, 0xdf]=normal slide, [0xe0, 0xef]=extra fine slide, [0xf0, 0xff]=fine slide
-           (see Amiga MOD effect 1, 14:1, and S3M effect FE/FF)</t>
-  </si>
-  <si>
-    <t>int16</t>
-  </si>
-  <si>
-    <t>Finetune (9.7 fixed point format)</t>
-  </si>
-  <si>
-    <t>pmfinstflag_bidi_loop</t>
-  </si>
-  <si>
-    <t>File version in BCD format, 0x1210 = v1.21</t>
+    <r>
+      <t>Sample index, or if &gt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num_smp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> offset to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>note_map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>notemap_data_offs</t>
+    </r>
+  </si>
+  <si>
+    <t>Initial channel panning (-127=full left, 127=full right, 0=center, -128=surround)</t>
+  </si>
+  <si>
+    <t>Sample metadata offset from the file start [=smp_meta_offs]</t>
+  </si>
+  <si>
+    <t>Instrument metadata offset from the file start [=inst_meta_offs]</t>
+  </si>
+  <si>
+    <t>Pattern metadata offset from the file start [=pat_meta_offs]</t>
+  </si>
+  <si>
+    <t>Note mapping data offset from the file start [=nmap_meta_offs]</t>
   </si>
 </sst>
 </file>
@@ -1435,7 +2209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1467,6 +2241,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1846,14 +2623,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G92"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:B64"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="81.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="85.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2007,10 +2782,10 @@
       <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="30"/>
+      <c r="B22" s="33"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
@@ -2035,10 +2810,10 @@
       <c r="E26" s="15"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="30"/>
+      <c r="B27" s="33"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
@@ -2060,10 +2835,10 @@
       <c r="D30" s="15"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="28"/>
+      <c r="B32" s="31"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
@@ -2132,10 +2907,10 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="28"/>
+      <c r="B43" s="31"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
@@ -2162,10 +2937,10 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="28"/>
+      <c r="B49" s="31"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
@@ -2221,10 +2996,10 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B58" s="28"/>
+      <c r="B58" s="31"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
@@ -2250,23 +3025,23 @@
       <c r="B63" s="14"/>
     </row>
     <row r="64" spans="1:5" ht="219" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="33" t="s">
+      <c r="A64" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="34"/>
+      <c r="B64" s="37"/>
       <c r="E64" s="15"/>
     </row>
     <row r="65" spans="1:4" ht="221.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="35" t="s">
+      <c r="A65" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="36"/>
+      <c r="B65" s="39"/>
     </row>
     <row r="66" spans="1:4" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="37" t="s">
+      <c r="A66" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="38"/>
+      <c r="B66" s="41"/>
       <c r="D66" s="15"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2278,142 +3053,142 @@
       <c r="B68" s="15"/>
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B69" s="32"/>
+      <c r="B69" s="35"/>
     </row>
     <row r="70" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" s="29"/>
+    </row>
+    <row r="71" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B71" s="43"/>
+    </row>
+    <row r="72" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="44"/>
+    </row>
+    <row r="73" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="44"/>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="26"/>
-    </row>
-    <row r="71" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" s="40"/>
-    </row>
-    <row r="72" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" s="41"/>
-    </row>
-    <row r="73" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" s="41"/>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="39" t="s">
+      <c r="B74" s="44"/>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="B74" s="41"/>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="39" t="s">
+      <c r="B75" s="44"/>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="41"/>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="39" t="s">
+      <c r="B76" s="44"/>
+    </row>
+    <row r="77" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" s="44"/>
+    </row>
+    <row r="78" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" s="44"/>
+    </row>
+    <row r="79" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B76" s="41"/>
-    </row>
-    <row r="77" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="39" t="s">
+      <c r="B79" s="44"/>
+    </row>
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="44"/>
+    </row>
+    <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" s="44"/>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" s="44"/>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="44"/>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="44"/>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85" s="44"/>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="B77" s="41"/>
-    </row>
-    <row r="78" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78" s="41"/>
-    </row>
-    <row r="79" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" s="41"/>
-    </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80" s="41"/>
-    </row>
-    <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="B81" s="41"/>
-    </row>
-    <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="B82" s="41"/>
-    </row>
-    <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83" s="41"/>
-    </row>
-    <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" s="41"/>
-    </row>
-    <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="B85" s="41"/>
-    </row>
-    <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="39" t="s">
+      <c r="B86" s="44"/>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="41"/>
-    </row>
-    <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="39" t="s">
+      <c r="B87" s="44"/>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="B87" s="41"/>
-    </row>
-    <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="39" t="s">
+      <c r="B88" s="44"/>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B88" s="41"/>
-    </row>
-    <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="39" t="s">
+      <c r="B89" s="44"/>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="B89" s="41"/>
-    </row>
-    <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="39" t="s">
+      <c r="B90" s="44"/>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="B90" s="41"/>
-    </row>
-    <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B91" s="41"/>
+      <c r="B91" s="44"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B92" s="15"/>
@@ -2463,14 +3238,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72728C17-C17C-4BC3-B50B-D76DF46164E6}">
   <dimension ref="A2:G97"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="81.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="85.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2494,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2534,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2542,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2640,10 +3413,10 @@
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="30"/>
+      <c r="B24" s="33"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
@@ -2660,10 +3433,10 @@
       <c r="E27" s="15"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="30"/>
+      <c r="B28" s="33"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
@@ -2685,10 +3458,10 @@
       <c r="D31" s="15"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="28"/>
+      <c r="B33" s="31"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
@@ -2733,10 +3506,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2756,10 +3529,10 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="28"/>
+      <c r="B44" s="31"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
@@ -2786,10 +3559,10 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="28"/>
+      <c r="B50" s="31"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
@@ -2845,10 +3618,10 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="28"/>
+      <c r="B59" s="31"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
@@ -2874,23 +3647,23 @@
       <c r="B64" s="14"/>
     </row>
     <row r="65" spans="1:5" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="33" t="s">
+      <c r="A65" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" s="37"/>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="1:5" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="B65" s="34"/>
-      <c r="E65" s="15"/>
-    </row>
-    <row r="66" spans="1:5" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="B66" s="36"/>
+      <c r="B66" s="39"/>
     </row>
     <row r="67" spans="1:5" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="37" t="s">
+      <c r="A67" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="38"/>
+      <c r="B67" s="41"/>
       <c r="D67" s="15"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2902,172 +3675,172 @@
       <c r="B69" s="15"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B70" s="32"/>
+      <c r="B70" s="35"/>
     </row>
     <row r="71" spans="1:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="29"/>
+    </row>
+    <row r="72" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B72" s="43"/>
+    </row>
+    <row r="73" spans="1:5" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" s="44"/>
+    </row>
+    <row r="74" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="44"/>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="26"/>
-    </row>
-    <row r="72" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" s="40"/>
-    </row>
-    <row r="73" spans="1:5" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="B73" s="41"/>
-    </row>
-    <row r="74" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" s="41"/>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="39" t="s">
+      <c r="B75" s="44"/>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="41"/>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="39" t="s">
+      <c r="B76" s="44"/>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="B76" s="41"/>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77" s="41"/>
+      <c r="B77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="B78" s="41"/>
+      <c r="A78" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" s="44"/>
     </row>
     <row r="79" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="B79" s="41"/>
+      <c r="A79" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B79" s="44"/>
     </row>
     <row r="80" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="B80" s="41"/>
+      <c r="A80" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B80" s="44"/>
     </row>
     <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="B81" s="41"/>
+      <c r="A81" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B81" s="44"/>
     </row>
     <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82" s="41"/>
+      <c r="A82" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="44"/>
     </row>
     <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="B83" s="41"/>
+      <c r="A83" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" s="44"/>
     </row>
     <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="39" t="s">
+      <c r="A84" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" s="44"/>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="B84" s="41"/>
-    </row>
-    <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="39" t="s">
+      <c r="B85" s="44"/>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="B85" s="41"/>
-    </row>
-    <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="39" t="s">
+      <c r="B86" s="44"/>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="B86" s="41"/>
-    </row>
-    <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="39" t="s">
+      <c r="B87" s="44"/>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="B87" s="41"/>
-    </row>
-    <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="39" t="s">
+      <c r="B88" s="44"/>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="B88" s="41"/>
-    </row>
-    <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="39" t="s">
+      <c r="B89" s="44"/>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" s="44"/>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B91" s="44"/>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B92" s="44"/>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B93" s="44"/>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" s="44"/>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="B89" s="41"/>
-    </row>
-    <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="B90" s="41"/>
-    </row>
-    <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="B91" s="41"/>
-    </row>
-    <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="B92" s="41"/>
-    </row>
-    <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="B93" s="41"/>
-    </row>
-    <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="39" t="s">
+      <c r="B95" s="44"/>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="B94" s="41"/>
-    </row>
-    <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B95" s="41"/>
-    </row>
-    <row r="96" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="39" t="s">
+      <c r="B96" s="44"/>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="B96" s="41"/>
-    </row>
-    <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="B97" s="41"/>
+      <c r="B97" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -3119,12 +3892,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B46E04-A2A3-45EF-B0E0-EC43C4688D5A}">
   <dimension ref="A2:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="81.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="85.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3148,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3188,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3196,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3294,10 +4067,10 @@
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="30"/>
+      <c r="B24" s="33"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
@@ -3314,10 +4087,10 @@
       <c r="E27" s="15"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="30"/>
+      <c r="B28" s="33"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
@@ -3332,17 +4105,17 @@
         <v>34</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D31" s="15"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="28"/>
+      <c r="B33" s="31"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
@@ -3387,10 +4160,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -3410,10 +4183,10 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="28"/>
+      <c r="B44" s="31"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
@@ -3440,10 +4213,10 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="28"/>
+      <c r="B50" s="31"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
@@ -3499,10 +4272,10 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="28"/>
+      <c r="B59" s="31"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
@@ -3528,23 +4301,23 @@
       <c r="B64" s="14"/>
     </row>
     <row r="65" spans="1:5" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="33" t="s">
+      <c r="A65" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" s="37"/>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="1:5" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="B65" s="34"/>
-      <c r="E65" s="15"/>
-    </row>
-    <row r="66" spans="1:5" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="B66" s="36"/>
+      <c r="B66" s="39"/>
     </row>
     <row r="67" spans="1:5" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="37" t="s">
+      <c r="A67" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="38"/>
+      <c r="B67" s="41"/>
       <c r="D67" s="15"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3556,172 +4329,172 @@
       <c r="B69" s="15"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B70" s="32"/>
+      <c r="B70" s="35"/>
     </row>
     <row r="71" spans="1:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="29"/>
+    </row>
+    <row r="72" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B72" s="43"/>
+    </row>
+    <row r="73" spans="1:5" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" s="44"/>
+    </row>
+    <row r="74" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="44"/>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="26"/>
-    </row>
-    <row r="72" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" s="40"/>
-    </row>
-    <row r="73" spans="1:5" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="B73" s="41"/>
-    </row>
-    <row r="74" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" s="41"/>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="39" t="s">
+      <c r="B75" s="44"/>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="41"/>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="39" t="s">
+      <c r="B76" s="44"/>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="B76" s="41"/>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77" s="41"/>
+      <c r="B77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="B78" s="41"/>
+      <c r="A78" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" s="44"/>
     </row>
     <row r="79" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="B79" s="41"/>
+      <c r="A79" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B79" s="44"/>
     </row>
     <row r="80" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="B80" s="41"/>
+      <c r="A80" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B80" s="44"/>
     </row>
     <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="B81" s="41"/>
+      <c r="A81" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B81" s="44"/>
     </row>
     <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82" s="41"/>
+      <c r="A82" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="44"/>
     </row>
     <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="B83" s="41"/>
+      <c r="A83" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" s="44"/>
     </row>
     <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="39" t="s">
+      <c r="A84" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" s="44"/>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="B84" s="41"/>
-    </row>
-    <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="39" t="s">
+      <c r="B85" s="44"/>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="B85" s="41"/>
-    </row>
-    <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="39" t="s">
+      <c r="B86" s="44"/>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="B86" s="41"/>
-    </row>
-    <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="39" t="s">
+      <c r="B87" s="44"/>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="B87" s="41"/>
-    </row>
-    <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="39" t="s">
+      <c r="B88" s="44"/>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="B88" s="41"/>
-    </row>
-    <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="39" t="s">
+      <c r="B89" s="44"/>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" s="44"/>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B91" s="44"/>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B92" s="44"/>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B93" s="44"/>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" s="44"/>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="B89" s="41"/>
-    </row>
-    <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="B90" s="41"/>
-    </row>
-    <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="B91" s="41"/>
-    </row>
-    <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="B92" s="41"/>
-    </row>
-    <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="B93" s="41"/>
-    </row>
-    <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="39" t="s">
+      <c r="B95" s="44"/>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="B94" s="41"/>
-    </row>
-    <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B95" s="41"/>
-    </row>
-    <row r="96" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="39" t="s">
+      <c r="B96" s="44"/>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="B96" s="41"/>
-    </row>
-    <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="B97" s="41"/>
+      <c r="B97" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -3767,4 +4540,847 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42893BFF-18D2-4DDA-B580-7B17122AD279}">
+  <dimension ref="A2:G126"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="85.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="33"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="33"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="15"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="31"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="19"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="31"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="31"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="31"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="19"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="15"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" s="15"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="15"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="15"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C73" s="15"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" s="31"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78" s="19"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B82" s="31"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C83" s="19"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" s="15"/>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B87" s="31"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C88" s="15"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C89" s="15"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C90" s="15"/>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B93" s="14"/>
+    </row>
+    <row r="94" spans="1:5" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" s="37"/>
+      <c r="E94" s="15"/>
+    </row>
+    <row r="95" spans="1:5" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95" s="39"/>
+    </row>
+    <row r="96" spans="1:5" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B96" s="41"/>
+      <c r="D96" s="15"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="15"/>
+    </row>
+    <row r="99" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B99" s="35"/>
+    </row>
+    <row r="100" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B100" s="29"/>
+    </row>
+    <row r="101" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B101" s="43"/>
+    </row>
+    <row r="102" spans="1:2" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="B102" s="44"/>
+    </row>
+    <row r="103" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B103" s="44"/>
+    </row>
+    <row r="104" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B104" s="44"/>
+    </row>
+    <row r="105" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B105" s="44"/>
+    </row>
+    <row r="106" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B106" s="44"/>
+    </row>
+    <row r="107" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" s="44"/>
+    </row>
+    <row r="108" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" s="44"/>
+    </row>
+    <row r="109" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B109" s="44"/>
+    </row>
+    <row r="110" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" s="44"/>
+    </row>
+    <row r="111" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B111" s="44"/>
+    </row>
+    <row r="112" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B112" s="44"/>
+    </row>
+    <row r="113" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B113" s="44"/>
+    </row>
+    <row r="114" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B114" s="44"/>
+    </row>
+    <row r="115" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="B115" s="44"/>
+    </row>
+    <row r="116" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B116" s="44"/>
+    </row>
+    <row r="117" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B117" s="44"/>
+    </row>
+    <row r="118" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B118" s="44"/>
+    </row>
+    <row r="119" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B119" s="44"/>
+    </row>
+    <row r="120" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B120" s="44"/>
+    </row>
+    <row r="121" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B121" s="44"/>
+    </row>
+    <row r="122" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B122" s="44"/>
+    </row>
+    <row r="123" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B123" s="44"/>
+    </row>
+    <row r="124" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B124" s="44"/>
+    </row>
+    <row r="125" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B125" s="44"/>
+    </row>
+    <row r="126" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B126" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/doc/file_format_pmf.xlsx
+++ b/doc/file_format_pmf.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\arduino-music-player\trunk\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\github\arduino-music-player\trunk\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598C6F49-5228-4CA6-9901-89B3D2563F9E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE25799-8DAA-4125-8AD2-3F34CA541824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="14490" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v1.1" sheetId="2" r:id="rId1"/>
     <sheet name="v1.2" sheetId="3" r:id="rId2"/>
     <sheet name="v1.21" sheetId="4" r:id="rId3"/>
     <sheet name="v1.3" sheetId="5" r:id="rId4"/>
+    <sheet name="v1.4" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -320,8 +321,132 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jarkko</author>
+    <author>me2</author>
+    <author>ME2</author>
+  </authors>
+  <commentList>
+    <comment ref="B35" authorId="0" shapeId="0" xr:uid="{DB407C35-DAFE-4E88-BE5A-83AD1F3E9DAC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>If the flag is set, use linear frequency table for note periods. Otherwise use Amiga table.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B39" authorId="0" shapeId="0" xr:uid="{B04AAABC-B04E-43D9-93C9-7F7775DCFCCC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>If the flag is set, sample is 16-bit data. Otherwise uses 8-bit data.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B40" authorId="1" shapeId="0" xr:uid="{85341F9A-7161-4663-81C3-6DB05A880C81}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If the loop is enabled and the flag is set, the loop is bidi (bi-directional) loop, otherwise uses regular forward loop</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B44" authorId="2" shapeId="0" xr:uid="{32C92BAD-CD03-44FB-87C5-7A56F15DEAE0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Note that sample data has an extra sample entry at the end that's not accounted in the "sample length", to support linear interpolation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B54" authorId="2" shapeId="0" xr:uid="{206973DB-AAEE-4D7A-8F58-C6A73F5098ED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Note: For index values &gt;=num_smp, subtract num_smp from the index value to get the actual data offset</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B85" authorId="2" shapeId="0" xr:uid="{B1A02B52-2FE5-4511-A5CF-674467710C35}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The entries map a range note indices to given note index offset and sample. If num_nme &lt;120, entries represent note index ranges (e.g. note indices 10..20 can be stored with a single entry to use given sample and note index offset). The ranges are stored in ascending order with max range value to enable quick linear or binary search. For complex mapping requiring many ranges (and slower search) the converter opts to direct mapping without the range representation.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B89" authorId="2" shapeId="0" xr:uid="{5F97A68D-5810-4956-8401-1F243B645427}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The total range of note indices covered by the entry is [prev_max+1, max], and for the very first entry [0, max]. Note that the max value is stored only if num_nme&lt;120. Otherwise nmap_entry is stored for each note and there's no need to store the range.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B90" authorId="2" shapeId="0" xr:uid="{1CC8B298-6155-449F-A292-B8E2517D5428}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>For note indices in the range, this is an offset that's added to the index for final note index value (0=no change). If the final note index is outside [0,  119] the note is cut.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="177">
   <si>
     <t>uint16</t>
   </si>
@@ -1930,6 +2055,39 @@
   </si>
   <si>
     <t>Note mapping data offset from the file start [=nmap_meta_offs]</t>
+  </si>
+  <si>
+    <t>Initial channel panning (-127=left, 0=center, 127=right, -128=surround)</t>
+  </si>
+  <si>
+    <t>Instrument panning (-127=left, 0=center, 127=right, -128=no pan)</t>
+  </si>
+  <si>
+    <t>uint24</t>
+  </si>
+  <si>
+    <t>Sample panning (-127=left, 0=center, 127=right, -128=no pan)</t>
+  </si>
+  <si>
+    <t>Volume is stored as 6-bit value ranging from 0..63. If volume effects are enabled (volume effects bit for the track is set) additional 2 bits are stored to extend the volume data range to 0..255. In this case 0..63 range is for setting volume as before, while range 64..255 is reserved for different effects. Note that the default volume for samples is in range 0..255, so track volume must be multiplied by 255/63=4.047619 to make these volumes match. To avoid float math, this can be done like this: (track_vol&lt;&lt;2)|(track_vol&gt;&gt;4). Volume track effects are as follows:
+  0x40-0x7f = Volume Slide [01xxyyyy], x=slide type (0=down, 1=up, 2=fine down, 3=fine up), y=slide speed
+  0x80-0x8f = Note Slide Down [1000xxxx], x=slide speed
+  0x90-0x9f = Note Slide Up [1001xxxx], x=slide speed
+  0xa0-0xaf = Note Slide [1010xxxx], x=slide speed
+  0xb0-0xbf = Set Vibrato Speed [1011xxxx], x=speed
+  0xc0-0xcf = Vibrato [1100xxxx], x=depth
+  0xd0-0xdf = Set Panning [1101xxxx], x=panning (-7=left, 0=center, 7=right, -8=surround)
+  0xe0-0xff = Slide Panning [111xyyyy], x=slide direction (0=left, 1=right), y=slide speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          If panning type = set (0), [yzwwwww] defines the 7-bit value (-63=left, 0=center, 63=right, -64=surround)
+          If panning type = slide (1), highest bit of w is unused and set to 0</t>
+  </si>
+  <si>
+    <t>File version in BCD format, 0x1400 = v1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  15 = Panning [xyzwwwww], x=type (0=set, 1=slide), y=precision (0=normal, 1=fine), z=direction (0=left, 1=right), w=value</t>
   </si>
 </sst>
 </file>
@@ -4546,8 +4704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42893BFF-18D2-4DDA-B580-7B17122AD279}">
   <dimension ref="A2:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5383,4 +5541,867 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B2D555-8DD0-41C6-9684-114605345373}">
+  <dimension ref="A2:G129"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="85.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="33"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="33"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="15"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="31"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="19"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="31"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="31"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="31"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="19"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="15"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" s="15"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" s="15"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="15"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" s="15"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" s="31"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" s="19"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B83" s="31"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C84" s="19"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" s="15"/>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B88" s="31"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C89" s="15"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C90" s="15"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C91" s="15"/>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B94" s="14"/>
+    </row>
+    <row r="95" spans="1:5" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95" s="37"/>
+      <c r="E95" s="15"/>
+    </row>
+    <row r="96" spans="1:5" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B96" s="39"/>
+    </row>
+    <row r="97" spans="1:4" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B97" s="41"/>
+      <c r="D97" s="15"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="15"/>
+    </row>
+    <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B100" s="35"/>
+    </row>
+    <row r="101" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B101" s="29"/>
+    </row>
+    <row r="102" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B102" s="43"/>
+    </row>
+    <row r="103" spans="1:4" ht="207.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="B103" s="44"/>
+    </row>
+    <row r="104" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B104" s="44"/>
+    </row>
+    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B105" s="44"/>
+    </row>
+    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B106" s="44"/>
+    </row>
+    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B107" s="44"/>
+    </row>
+    <row r="108" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" s="44"/>
+    </row>
+    <row r="109" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109" s="44"/>
+    </row>
+    <row r="110" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110" s="44"/>
+    </row>
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" s="44"/>
+    </row>
+    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B112" s="44"/>
+    </row>
+    <row r="113" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B113" s="44"/>
+    </row>
+    <row r="114" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B114" s="44"/>
+    </row>
+    <row r="115" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B115" s="44"/>
+    </row>
+    <row r="116" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="B116" s="44"/>
+    </row>
+    <row r="117" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B117" s="44"/>
+    </row>
+    <row r="118" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B118" s="44"/>
+    </row>
+    <row r="119" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B119" s="44"/>
+    </row>
+    <row r="120" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B120" s="44"/>
+    </row>
+    <row r="121" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B121" s="44"/>
+    </row>
+    <row r="122" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B122" s="44"/>
+    </row>
+    <row r="123" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B123" s="44"/>
+    </row>
+    <row r="124" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B124" s="44"/>
+    </row>
+    <row r="125" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B125" s="44"/>
+    </row>
+    <row r="126" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B126" s="44"/>
+    </row>
+    <row r="127" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B127" s="44"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="B128" s="44"/>
+    </row>
+    <row r="129" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B129" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A128:B128"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>